--- a/stuentDB定义书.xlsx
+++ b/stuentDB定义书.xlsx
@@ -13,20 +13,148 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>用户信息表</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段中文名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>数据id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>学生学号，老师的编号</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38,21 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -61,48 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -116,14 +187,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,44 +200,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,187 +244,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +448,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,9 +470,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,7 +483,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,26 +535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,138 +561,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +1023,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="17.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="15.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="17.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="36.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
